--- a/Jogos_do_Dia/2023-10-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="L2" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.62</v>
@@ -712,13 +712,13 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.5</v>
       </c>
       <c r="T2" t="n">
         <v>1.5</v>
@@ -926,10 +926,10 @@
         <v>1.35</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="U4" t="n">
         <v>1.57</v>
@@ -1108,13 +1108,13 @@
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1.3</v>
@@ -1135,10 +1135,10 @@
         <v>4.33</v>
       </c>
       <c r="S5" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>1.53</v>
@@ -1247,13 +1247,13 @@
         <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="K6" t="n">
         <v>3.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.53</v>
@@ -1274,10 +1274,10 @@
         <v>2.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1368,124 +1368,124 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.1</v>
       </c>
-      <c r="I7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
         <v>1.25</v>
       </c>
       <c r="Y7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z7" t="n">
         <v>1.83</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AA7" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.08</v>
+        <v>2.67</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.41</v>
+        <v>1.85</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>3.49</v>
+        <v>2.28</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
@@ -1507,124 +1507,124 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.02</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.22</v>
       </c>
-      <c r="R8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="X8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB8" t="n">
         <v>1.67</v>
       </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AC8" t="n">
-        <v>1.19</v>
+        <v>1.56</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.46</v>
+        <v>3.23</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="AF8" t="n">
         <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.62</v>
+        <v>3.33</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AI8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP8" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>3.3</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9">
@@ -1646,124 +1646,124 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Crawley Town</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.41</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N9" t="n">
         <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
         <v>1.25</v>
       </c>
       <c r="R9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1785,121 +1785,121 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Forest Green Rovers</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
         <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R10" t="n">
         <v>3.3</v>
       </c>
-      <c r="L10" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.75</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
         <v>1.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6</v>
+        <v>1.14</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.72</v>
+        <v>2.59</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AF10" t="n">
         <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.83</v>
+        <v>2.44</v>
       </c>
       <c r="AH10" t="n">
         <v>1.2</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AP10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.32</v>
@@ -1924,31 +1924,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.36</v>
@@ -1960,7 +1960,7 @@
         <v>1.04</v>
       </c>
       <c r="P11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q11" t="n">
         <v>1.28</v>
@@ -1969,79 +1969,79 @@
         <v>3.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.1</v>
       </c>
-      <c r="W11" t="n">
-        <v>1.3</v>
-      </c>
       <c r="X11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.85</v>
+        <v>2.78</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.28</v>
+        <v>1.59</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="12">
@@ -2063,55 +2063,55 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="H12" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="K12" t="n">
         <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.89</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="R12" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="S12" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2120,67 +2120,67 @@
         <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>2.1</v>
+        <v>1.28</v>
       </c>
       <c r="X12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="Z12" t="n">
         <v>1.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.8</v>
+        <v>0.83</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.66</v>
+        <v>3.08</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.78</v>
+        <v>1.41</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.59</v>
+        <v>3.49</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AM12" t="n">
         <v>1.95</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="13">
@@ -2202,124 +2202,124 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.2</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="W13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP13" t="n">
         <v>3.4</v>
       </c>
-      <c r="L13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>3.1</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="14">
@@ -2341,124 +2341,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Crawley Town</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
       <c r="H14" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.41</v>
+        <v>1.95</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="n">
         <v>1.25</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>1.29</v>
       </c>
-      <c r="Y14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AC14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL14" t="n">
         <v>2</v>
       </c>
-      <c r="AA14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15">
@@ -2480,124 +2480,124 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N15" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P15" t="n">
         <v>10</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="R15" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
         <v>1.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.6</v>
+        <v>2.33</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AH15" t="n">
         <v>1.25</v>
       </c>
-      <c r="AC15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AI15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK15" t="n">
         <v>2.4</v>
       </c>
-      <c r="AE15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>2.33</v>
-      </c>
       <c r="AL15" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO15" t="n">
         <v>1.47</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="16">
@@ -2619,124 +2619,124 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.56</v>
-      </c>
       <c r="T16" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AA16" t="n">
         <v>1.5</v>
       </c>
       <c r="AB16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AE16" t="n">
         <v>2.05</v>
       </c>
-      <c r="AC16" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AF16" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="n">
-        <v>4.44</v>
+        <v>2.05</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1.47</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="17">
@@ -2758,124 +2758,124 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Forest Green Rovers</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.7</v>
+        <v>2.62</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="R17" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>2.22</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="X17" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>0.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.23</v>
+        <v>2.72</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
-        <v>3.33</v>
+        <v>1.83</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AI17" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="18">
@@ -3036,124 +3036,124 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
         <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
         <v>3.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O19" t="n">
         <v>1.05</v>
       </c>
       <c r="P19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="S19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V19" t="n">
         <v>2</v>
       </c>
-      <c r="T19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="X19" t="n">
         <v>1.25</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.9</v>
+        <v>1.44</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.22</v>
+        <v>2.87</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG19" t="n">
-        <v>3.19</v>
+        <v>2.44</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AI19" t="n">
-        <v>4.25</v>
+        <v>3.55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="AN19" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="20">
@@ -3175,124 +3175,124 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB20" t="n">
         <v>1.44</v>
       </c>
-      <c r="N20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AC20" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.65</v>
+        <v>2.78</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3314,124 +3314,124 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H21" t="n">
         <v>2.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L21" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="M21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O21" t="n">
         <v>1.05</v>
       </c>
       <c r="P21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R21" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="T21" t="n">
         <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="X21" t="n">
         <v>1.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AA21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN21" t="n">
         <v>2</v>
       </c>
-      <c r="AB21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>2.45</v>
-      </c>
       <c r="AO21" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="22">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -3519,19 +3519,19 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.51</v>
+        <v>2.83</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -3592,43 +3592,43 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.45</v>
+        <v>2.9</v>
       </c>
       <c r="M23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q23" t="n">
         <v>1.36</v>
@@ -3637,7 +3637,7 @@
         <v>3.2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
         <v>1.73</v>
@@ -3649,28 +3649,28 @@
         <v>1.95</v>
       </c>
       <c r="W23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X23" t="n">
         <v>1.28</v>
       </c>
-      <c r="X23" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Y23" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
         <v>0.83</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.31</v>
+        <v>2.65</v>
       </c>
       <c r="AE23" t="n">
         <v>1.75</v>
@@ -3682,34 +3682,34 @@
         <v>2.44</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AI23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AK23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN23" t="n">
         <v>2.35</v>
       </c>
-      <c r="AL23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AO23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="24">
@@ -3731,12 +3731,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -3797,19 +3797,19 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC24" t="n">
         <v>1.17</v>
       </c>
-      <c r="AA24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AD24" t="n">
-        <v>2.83</v>
+        <v>2.51</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3870,31 +3870,31 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Burton Albion</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
         <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.4</v>
@@ -3909,85 +3909,85 @@
         <v>11</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="R25" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="X25" t="n">
         <v>1.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AA25" t="n">
         <v>0.83</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.92</v>
+        <v>2.31</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.28</v>
+        <v>2.35</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="AM25" t="n">
-        <v>2.39</v>
+        <v>1.83</v>
       </c>
       <c r="AN25" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="26">
@@ -4009,94 +4009,94 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R26" t="n">
         <v>3.4</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="S26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.36</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P26" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.55</v>
       </c>
       <c r="X26" t="n">
         <v>1.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.4</v>
+        <v>0.83</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.04</v>
+        <v>2.92</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
@@ -4105,28 +4105,28 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AM26" t="n">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="27">
@@ -4410,7 +4410,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -4418,138 +4418,138 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Mirandés</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>CD Tenerife</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AA29" t="n">
         <v>1.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.78</v>
+        <v>2.44</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -4557,138 +4557,138 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P30" t="n">
         <v>11</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mirandés</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>CD Tenerife</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="Q30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y30" t="n">
         <v>1.53</v>
       </c>
-      <c r="N30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P30" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1.36</v>
-      </c>
       <c r="Z30" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.44</v>
+        <v>3.22</v>
       </c>
       <c r="AE30" t="n">
         <v>2.05</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -4696,132 +4696,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>FC Cartagena</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>2.9</v>
       </c>
       <c r="H31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J31" t="n">
         <v>2.25</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L31" t="n">
         <v>3</v>
       </c>
-      <c r="J31" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.6</v>
-      </c>
       <c r="M31" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="N31" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="O31" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="P31" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="R31" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.57</v>
       </c>
-      <c r="T31" t="n">
-        <v>2.4</v>
-      </c>
       <c r="U31" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="V31" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="W31" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="X31" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.75</v>
+        <v>0.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.77</v>
+        <v>1.32</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AD31" t="n">
-        <v>3.22</v>
+        <v>2.51</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="32">
@@ -4843,130 +4843,130 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Cartagena</t>
+          <t>Sporting Gijón</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>2.9</v>
       </c>
       <c r="H32" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L32" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="N32" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="P32" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="S32" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="T32" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="U32" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="W32" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X32" t="n">
         <v>1.36</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.4</v>
+        <v>2.25</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.51</v>
+        <v>2.72</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="AF32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG32" t="n">
-        <v>2.29</v>
+        <v>2.77</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AI32" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AL32" t="n">
         <v>1.98</v>
       </c>
       <c r="AM32" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AN32" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AP32" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4974,138 +4974,138 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sporting Gijón</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Real Zaragoza</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="H33" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="I33" t="n">
-        <v>4.2</v>
+        <v>3.88</v>
       </c>
       <c r="J33" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="K33" t="n">
-        <v>2.85</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="M33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P33" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S33" t="n">
         <v>1.57</v>
       </c>
-      <c r="N33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.45</v>
-      </c>
       <c r="T33" t="n">
-        <v>1.43</v>
+        <v>2.35</v>
       </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="V33" t="n">
-        <v>1.67</v>
+        <v>2.43</v>
       </c>
       <c r="W33" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="X33" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="Z33" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.72</v>
+        <v>3.07</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -5113,138 +5113,138 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>RCD Espanyol</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="I34" t="n">
-        <v>3.88</v>
+        <v>4.4</v>
       </c>
       <c r="J34" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="K34" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>3.48</v>
+        <v>4.2</v>
       </c>
       <c r="M34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AH34" t="n">
         <v>1.26</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AI34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP34" t="n">
         <v>3.5</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P34" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -5252,138 +5252,138 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>RCD Espanyol</t>
+          <t>La Luz</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L35" t="n">
-        <v>4.15</v>
+        <v>1.95</v>
       </c>
       <c r="M35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB35" t="n">
         <v>1.4</v>
       </c>
-      <c r="N35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P35" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.66</v>
-      </c>
       <c r="AC35" t="n">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="AD35" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.51</v>
+        <v>2.05</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>3.16</v>
+        <v>2.05</v>
       </c>
       <c r="AH35" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AI35" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AK35" t="n">
-        <v>2.35</v>
+        <v>2.13</v>
       </c>
       <c r="AL35" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AN35" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="AO35" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AP35" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -5391,132 +5391,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>La Luz</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK36" t="n">
         <v>2.2</v>
       </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>2.13</v>
-      </c>
       <c r="AL36" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="AM36" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AN36" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="AO36" t="n">
         <v>1.39</v>
       </c>
       <c r="AP36" t="n">
-        <v>3.42</v>
+        <v>3.8</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="37">
@@ -5538,124 +5538,124 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>7</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AB37" t="n">
         <v>1.91</v>
       </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="AC37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ37" t="n">
         <v>1.57</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P37" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="38">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -5677,130 +5677,130 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Sampaio Corrêa</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="H38" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="J38" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="K38" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P38" t="n">
         <v>7</v>
       </c>
-      <c r="M38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P38" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Q38" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="R38" t="n">
-        <v>2.95</v>
+        <v>2.45</v>
       </c>
       <c r="S38" t="n">
         <v>2.4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U38" t="n">
         <v>2.25</v>
       </c>
       <c r="V38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO38" t="n">
         <v>1.55</v>
       </c>
-      <c r="W38" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AP38" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -5808,138 +5808,138 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sampaio Corrêa</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="K39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L39" t="n">
-        <v>4.75</v>
+        <v>3.15</v>
       </c>
       <c r="M39" t="n">
         <v>1.53</v>
       </c>
       <c r="N39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O39" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="R39" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S39" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="T39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC39" t="n">
         <v>1.47</v>
       </c>
-      <c r="U39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1.04</v>
-      </c>
       <c r="AD39" t="n">
-        <v>2.63</v>
+        <v>2.74</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="AH39" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AI39" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AK39" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AN39" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="AO39" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AP39" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -5947,138 +5947,138 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="K40" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M40" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V40" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
         <v>1.33</v>
       </c>
-      <c r="X40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.08</v>
-      </c>
       <c r="AA40" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.27</v>
+        <v>1.72</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.74</v>
+        <v>3.22</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AF40" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>USA MLS</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -6086,132 +6086,410 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N41" t="n">
         <v>3.25</v>
       </c>
-      <c r="H41" t="n">
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM41" t="n">
         <v>1.95</v>
       </c>
-      <c r="I41" t="n">
+      <c r="AN41" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N43" t="n">
         <v>3.75</v>
       </c>
-      <c r="J41" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="T41" t="n">
+      <c r="O43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z43" t="n">
         <v>1.53</v>
       </c>
-      <c r="U41" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="n">
+      <c r="AA43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ43" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
